--- a/201711 DIARY/20171112 FOOD DIARY.xlsx
+++ b/201711 DIARY/20171112 FOOD DIARY.xlsx
@@ -484,12 +484,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -522,6 +516,12 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="10" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -805,23 +805,23 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F16" sqref="F16"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="46.83203125" style="21" customWidth="1"/>
+    <col min="1" max="1" width="46.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="18.6640625" customWidth="1"/>
     <col min="7" max="7" width="27.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.5" style="25"/>
-    <col min="9" max="9" width="14.6640625" style="25" customWidth="1"/>
-    <col min="10" max="10" width="22.6640625" style="25" customWidth="1"/>
+    <col min="8" max="8" width="14.5" style="23"/>
+    <col min="9" max="9" width="14.6640625" style="23" customWidth="1"/>
+    <col min="10" max="10" width="22.6640625" style="23" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="26" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
@@ -840,13 +840,13 @@
       <c r="G1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="20" t="s">
         <v>17</v>
       </c>
       <c r="K1" s="14" t="s">
@@ -869,7 +869,7 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="16" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="1"/>
@@ -880,13 +880,13 @@
       <c r="G2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <v>5.7</v>
       </c>
-      <c r="I2" s="23">
+      <c r="I2" s="21">
         <v>2.82</v>
       </c>
-      <c r="J2" s="23">
+      <c r="J2" s="21">
         <v>21.07</v>
       </c>
       <c r="K2" s="4"/>
@@ -907,7 +907,7 @@
       <c r="Z2" s="4"/>
     </row>
     <row r="3" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="16" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="1">
@@ -924,13 +924,13 @@
       <c r="G3" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <v>6.8</v>
       </c>
-      <c r="I3" s="23">
+      <c r="I3" s="21">
         <v>3.82</v>
       </c>
-      <c r="J3" s="23">
+      <c r="J3" s="21">
         <v>21.14</v>
       </c>
       <c r="K3" s="4"/>
@@ -951,7 +951,7 @@
       <c r="Z3" s="4"/>
     </row>
     <row r="4" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="16" t="s">
         <v>13</v>
       </c>
       <c r="B4" s="1">
@@ -966,9 +966,9 @@
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
-      <c r="H4" s="24"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
       <c r="M4" s="4"/>
@@ -987,7 +987,7 @@
       <c r="Z4" s="4"/>
     </row>
     <row r="5" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="16" t="s">
         <v>14</v>
       </c>
       <c r="B5" s="1">
@@ -1002,9 +1002,9 @@
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="24"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
@@ -1023,7 +1023,7 @@
       <c r="Z5" s="4"/>
     </row>
     <row r="6" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A6" s="18"/>
+      <c r="A6" s="16"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -1035,8 +1035,7 @@
       <c r="H6" s="12">
         <v>0.23</v>
       </c>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12">
+      <c r="I6" s="12">
         <v>3.1972999999999998</v>
       </c>
       <c r="K6" s="4"/>
@@ -1057,7 +1056,7 @@
       <c r="Z6" s="4"/>
     </row>
     <row r="7" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A7" s="18"/>
+      <c r="A7" s="16"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1085,7 +1084,7 @@
       <c r="Z7" s="4"/>
     </row>
     <row r="8" spans="1:26" s="5" customFormat="1" ht="48" x14ac:dyDescent="0.35">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>26</v>
       </c>
       <c r="B8" s="1"/>
@@ -1115,7 +1114,7 @@
       <c r="Z8" s="4"/>
     </row>
     <row r="9" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="B9" s="1">
@@ -1129,12 +1128,12 @@
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="26"/>
+      <c r="J9" s="26"/>
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="4"/>
@@ -1153,16 +1152,16 @@
       <c r="Z9" s="4"/>
     </row>
     <row r="10" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>17.399999999999999</v>
       </c>
-      <c r="C10" s="26">
+      <c r="C10" s="24">
         <v>9.6999999999999993</v>
       </c>
-      <c r="D10" s="26">
+      <c r="D10" s="24">
         <v>7.6</v>
       </c>
       <c r="E10" s="4"/>
@@ -1197,7 +1196,7 @@
       <c r="Z10" s="4"/>
     </row>
     <row r="11" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A11" s="18"/>
+      <c r="A11" s="16"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -1233,7 +1232,7 @@
       <c r="Z11" s="4"/>
     </row>
     <row r="12" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A12" s="18"/>
+      <c r="A12" s="16"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -1261,7 +1260,7 @@
       <c r="Z12" s="4"/>
     </row>
     <row r="13" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A13" s="18"/>
+      <c r="A13" s="16"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -1289,7 +1288,7 @@
       <c r="Z13" s="4"/>
     </row>
     <row r="14" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A14" s="18"/>
+      <c r="A14" s="16"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -1317,18 +1316,18 @@
       <c r="Z14" s="4"/>
     </row>
     <row r="15" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A15" s="18"/>
+      <c r="A15" s="16"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
-      <c r="G15" s="16" t="s">
+      <c r="G15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1347,7 +1346,7 @@
       <c r="Z15" s="4"/>
     </row>
     <row r="16" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A16" s="18"/>
+      <c r="A16" s="16"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -1383,7 +1382,7 @@
       <c r="Z16" s="4"/>
     </row>
     <row r="17" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A17" s="18"/>
+      <c r="A17" s="16"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -1419,7 +1418,7 @@
       <c r="Z17" s="4"/>
     </row>
     <row r="18" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A18" s="18"/>
+      <c r="A18" s="16"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -1447,7 +1446,7 @@
       <c r="Z18" s="4"/>
     </row>
     <row r="19" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A19" s="18"/>
+      <c r="A19" s="16"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -1475,7 +1474,7 @@
       <c r="Z19" s="4"/>
     </row>
     <row r="20" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A20" s="18"/>
+      <c r="A20" s="16"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -1503,7 +1502,7 @@
       <c r="Z20" s="4"/>
     </row>
     <row r="21" spans="1:26" s="5" customFormat="1" ht="24" x14ac:dyDescent="0.35">
-      <c r="A21" s="18"/>
+      <c r="A21" s="16"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -1531,7 +1530,7 @@
       <c r="Z21" s="4"/>
     </row>
     <row r="22" spans="1:26" ht="26" x14ac:dyDescent="0.4">
-      <c r="A22" s="19" t="s">
+      <c r="A22" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B22" s="10">
@@ -1556,7 +1555,7 @@
       <c r="J22" s="12"/>
     </row>
     <row r="23" spans="1:26" ht="26" x14ac:dyDescent="0.4">
-      <c r="A23" s="20"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="6"/>
       <c r="D23" s="7">
         <v>50</v>
@@ -1570,7 +1569,7 @@
       <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:26" ht="26" x14ac:dyDescent="0.4">
-      <c r="A24" s="18"/>
+      <c r="A24" s="16"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
